--- a/published-data/fonds-solidarite/fds-2020-11-10/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-11-10/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -420,10 +420,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>351220</v>
+        <v>351569</v>
       </c>
       <c r="D2" t="n">
-        <v>446209436</v>
+        <v>446602088</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -458,10 +458,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D3" t="n">
-        <v>343216</v>
+        <v>344716</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>125614</v>
+        <v>125701</v>
       </c>
       <c r="D10" t="n">
-        <v>183950256</v>
+        <v>184076137</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D11" t="n">
-        <v>219013</v>
+        <v>220513</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -800,10 +800,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>65863</v>
+        <v>65939</v>
       </c>
       <c r="D12" t="n">
-        <v>95067051</v>
+        <v>95174509</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4158</v>
+        <v>4160</v>
       </c>
       <c r="D16" t="n">
-        <v>5904077</v>
+        <v>5907077</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1142,10 +1142,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>8656</v>
+        <v>8682</v>
       </c>
       <c r="D21" t="n">
-        <v>12081358</v>
+        <v>12116443</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1218,10 +1218,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>83614</v>
+        <v>83685</v>
       </c>
       <c r="D23" t="n">
-        <v>103784788</v>
+        <v>103863029</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>34379</v>
+        <v>34406</v>
       </c>
       <c r="D29" t="n">
-        <v>50310969</v>
+        <v>50348864</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1560,10 +1560,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>12492</v>
+        <v>12507</v>
       </c>
       <c r="D32" t="n">
-        <v>17971228</v>
+        <v>17993728</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1674,10 +1674,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="D35" t="n">
-        <v>2271928</v>
+        <v>2274902</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1750,10 +1750,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2287</v>
+        <v>2293</v>
       </c>
       <c r="D37" t="n">
-        <v>3221311</v>
+        <v>3229933</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1788,10 +1788,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>104501</v>
+        <v>104591</v>
       </c>
       <c r="D38" t="n">
-        <v>130864658</v>
+        <v>130963114</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2016,10 +2016,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="D44" t="n">
-        <v>1359185</v>
+        <v>1360685</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2092,10 +2092,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>46876</v>
+        <v>46894</v>
       </c>
       <c r="D46" t="n">
-        <v>68658678</v>
+        <v>68684716</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2130,10 +2130,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D47" t="n">
-        <v>44974</v>
+        <v>46474</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2168,10 +2168,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>9967</v>
+        <v>9976</v>
       </c>
       <c r="D48" t="n">
-        <v>14284470</v>
+        <v>14297970</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2244,10 +2244,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="D50" t="n">
-        <v>2066257</v>
+        <v>2067757</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2358,10 +2358,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2898</v>
+        <v>2904</v>
       </c>
       <c r="D53" t="n">
-        <v>4062862</v>
+        <v>4071147</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>74643</v>
+        <v>74713</v>
       </c>
       <c r="D54" t="n">
-        <v>93358484</v>
+        <v>93432428</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2662,10 +2662,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>30133</v>
+        <v>30157</v>
       </c>
       <c r="D61" t="n">
-        <v>44153949</v>
+        <v>44189860</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2776,10 +2776,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>12190</v>
+        <v>12200</v>
       </c>
       <c r="D64" t="n">
-        <v>17611615</v>
+        <v>17624615</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2852,10 +2852,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="D66" t="n">
-        <v>1998763</v>
+        <v>2000166</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3004,10 +3004,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1865</v>
+        <v>1868</v>
       </c>
       <c r="D70" t="n">
-        <v>2619827</v>
+        <v>2624327</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3080,10 +3080,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>22474</v>
+        <v>22494</v>
       </c>
       <c r="D72" t="n">
-        <v>29354969</v>
+        <v>29378508</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>8278</v>
+        <v>8284</v>
       </c>
       <c r="D76" t="n">
-        <v>12121026</v>
+        <v>12130524</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3308,10 +3308,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5677</v>
+        <v>5683</v>
       </c>
       <c r="D78" t="n">
-        <v>8254931</v>
+        <v>8263931</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3346,10 +3346,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="D79" t="n">
-        <v>782008</v>
+        <v>784968</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3384,10 +3384,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D80" t="n">
-        <v>508048</v>
+        <v>509448</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3422,10 +3422,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>152666</v>
+        <v>152802</v>
       </c>
       <c r="D81" t="n">
-        <v>189533417</v>
+        <v>189674839</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3650,10 +3650,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>67541</v>
+        <v>67577</v>
       </c>
       <c r="D87" t="n">
-        <v>98934028</v>
+        <v>98985778</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3764,10 +3764,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>32134</v>
+        <v>32159</v>
       </c>
       <c r="D90" t="n">
-        <v>46485416</v>
+        <v>46522916</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3840,10 +3840,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2984</v>
+        <v>2985</v>
       </c>
       <c r="D92" t="n">
-        <v>4304682</v>
+        <v>4306182</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3916,10 +3916,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3530</v>
+        <v>3541</v>
       </c>
       <c r="D94" t="n">
-        <v>4984937</v>
+        <v>4998301</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3954,10 +3954,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>37814</v>
+        <v>37839</v>
       </c>
       <c r="D95" t="n">
-        <v>51291641</v>
+        <v>51324684</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -4106,10 +4106,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>9361</v>
+        <v>9383</v>
       </c>
       <c r="D99" t="n">
-        <v>13751758</v>
+        <v>13784762</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -4182,10 +4182,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>8722</v>
+        <v>8725</v>
       </c>
       <c r="D101" t="n">
-        <v>12655426</v>
+        <v>12659926</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -4258,10 +4258,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="D103" t="n">
-        <v>841550</v>
+        <v>845430</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -4296,10 +4296,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D104" t="n">
-        <v>825060</v>
+        <v>826560</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -4334,10 +4334,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>16485</v>
+        <v>16517</v>
       </c>
       <c r="D105" t="n">
-        <v>30791225</v>
+        <v>30882945</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -4448,10 +4448,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>3809</v>
+        <v>3831</v>
       </c>
       <c r="D108" t="n">
-        <v>7627695</v>
+        <v>7680181</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -4524,10 +4524,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>5421</v>
+        <v>5437</v>
       </c>
       <c r="D110" t="n">
-        <v>10978084</v>
+        <v>11023520</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -4600,10 +4600,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D112" t="n">
-        <v>499340</v>
+        <v>507340</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -4638,10 +4638,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D113" t="n">
-        <v>621150</v>
+        <v>626650</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -4714,10 +4714,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>153650</v>
+        <v>153790</v>
       </c>
       <c r="D115" t="n">
-        <v>189655230</v>
+        <v>189806410</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -4942,10 +4942,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>56512</v>
+        <v>56558</v>
       </c>
       <c r="D121" t="n">
-        <v>82753723</v>
+        <v>82820395</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -5018,10 +5018,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>30383</v>
+        <v>30412</v>
       </c>
       <c r="D123" t="n">
-        <v>44011511</v>
+        <v>44053367</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -5170,10 +5170,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>2820</v>
+        <v>2827</v>
       </c>
       <c r="D127" t="n">
-        <v>3972675</v>
+        <v>3983097</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -5246,10 +5246,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>613632</v>
+        <v>614664</v>
       </c>
       <c r="D129" t="n">
-        <v>810103895</v>
+        <v>811361164</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -5322,10 +5322,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D131" t="n">
-        <v>365213</v>
+        <v>366713</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -5436,10 +5436,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1587</v>
+        <v>1593</v>
       </c>
       <c r="D134" t="n">
-        <v>2350103</v>
+        <v>2359103</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -5512,10 +5512,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>236416</v>
+        <v>236809</v>
       </c>
       <c r="D136" t="n">
-        <v>347302122</v>
+        <v>347877220</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -5550,10 +5550,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D137" t="n">
-        <v>801647</v>
+        <v>803147</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -5626,10 +5626,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>220465</v>
+        <v>220897</v>
       </c>
       <c r="D139" t="n">
-        <v>320588014</v>
+        <v>321208427</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -5740,10 +5740,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>3017</v>
+        <v>3019</v>
       </c>
       <c r="D142" t="n">
-        <v>4240734</v>
+        <v>4243734</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -5854,10 +5854,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>8458</v>
+        <v>8502</v>
       </c>
       <c r="D145" t="n">
-        <v>11920452</v>
+        <v>11981868</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -5968,10 +5968,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>49504</v>
+        <v>49534</v>
       </c>
       <c r="D148" t="n">
-        <v>65998563</v>
+        <v>66040199</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -6006,10 +6006,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D149" t="n">
-        <v>45036</v>
+        <v>45310</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -6196,10 +6196,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>15269</v>
+        <v>15278</v>
       </c>
       <c r="D154" t="n">
-        <v>22376939</v>
+        <v>22390110</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -6234,10 +6234,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>4146</v>
+        <v>4149</v>
       </c>
       <c r="D155" t="n">
-        <v>5983326</v>
+        <v>5987826</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -6424,10 +6424,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D160" t="n">
-        <v>703366</v>
+        <v>704259</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -6462,10 +6462,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>19758</v>
+        <v>19793</v>
       </c>
       <c r="D161" t="n">
-        <v>26121567</v>
+        <v>26168853</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -6576,10 +6576,10 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D164" t="n">
-        <v>82406</v>
+        <v>83906</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -6614,10 +6614,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>8181</v>
+        <v>8193</v>
       </c>
       <c r="D165" t="n">
-        <v>11901340</v>
+        <v>11919200</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -6690,10 +6690,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>5804</v>
+        <v>5815</v>
       </c>
       <c r="D167" t="n">
-        <v>8353327</v>
+        <v>8369992</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -6880,10 +6880,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>28701</v>
+        <v>28736</v>
       </c>
       <c r="D172" t="n">
-        <v>57766848</v>
+        <v>57862448</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -6918,10 +6918,10 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>2860</v>
+        <v>2867</v>
       </c>
       <c r="D173" t="n">
-        <v>5681227</v>
+        <v>5702117</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -7108,10 +7108,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>94526</v>
+        <v>94607</v>
       </c>
       <c r="D178" t="n">
-        <v>117693934</v>
+        <v>117784627</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -7374,10 +7374,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>36132</v>
+        <v>36156</v>
       </c>
       <c r="D185" t="n">
-        <v>52954137</v>
+        <v>52988636</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -7450,10 +7450,10 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>14375</v>
+        <v>14384</v>
       </c>
       <c r="D187" t="n">
-        <v>20764991</v>
+        <v>20778331</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -7602,10 +7602,10 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="D191" t="n">
-        <v>2862291</v>
+        <v>2863791</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -7678,10 +7678,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>257756</v>
+        <v>257955</v>
       </c>
       <c r="D193" t="n">
-        <v>319279014</v>
+        <v>319488138</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -7906,10 +7906,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="D199" t="n">
-        <v>1378781</v>
+        <v>1381781</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -7982,10 +7982,10 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>92287</v>
+        <v>92351</v>
       </c>
       <c r="D201" t="n">
-        <v>135206694</v>
+        <v>135301215</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -8096,10 +8096,10 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>36220</v>
+        <v>36264</v>
       </c>
       <c r="D204" t="n">
-        <v>52149940</v>
+        <v>52210076</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -8210,10 +8210,10 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>5461</v>
+        <v>5470</v>
       </c>
       <c r="D207" t="n">
-        <v>7777948</v>
+        <v>7790817</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -8324,10 +8324,10 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>6038</v>
+        <v>6057</v>
       </c>
       <c r="D210" t="n">
-        <v>8359319</v>
+        <v>8384838</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -8438,10 +8438,10 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>286696</v>
+        <v>286946</v>
       </c>
       <c r="D213" t="n">
-        <v>353765966</v>
+        <v>354017372</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -8704,10 +8704,10 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D220" t="n">
-        <v>953393</v>
+        <v>954893</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -8780,10 +8780,10 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>102082</v>
+        <v>102132</v>
       </c>
       <c r="D222" t="n">
-        <v>149287033</v>
+        <v>149356204</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -8894,10 +8894,10 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>56611</v>
+        <v>56660</v>
       </c>
       <c r="D225" t="n">
-        <v>81783858</v>
+        <v>81851102</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -9008,10 +9008,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>4925</v>
+        <v>4933</v>
       </c>
       <c r="D228" t="n">
-        <v>6910379</v>
+        <v>6918902</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -9122,10 +9122,10 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>7496</v>
+        <v>7524</v>
       </c>
       <c r="D231" t="n">
-        <v>10373921</v>
+        <v>10414314</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -9236,10 +9236,10 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>115588</v>
+        <v>115714</v>
       </c>
       <c r="D234" t="n">
-        <v>144007672</v>
+        <v>144140155</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -9502,10 +9502,10 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>52647</v>
+        <v>52683</v>
       </c>
       <c r="D241" t="n">
-        <v>77100745</v>
+        <v>77149658</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -9578,10 +9578,10 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>13874</v>
+        <v>13893</v>
       </c>
       <c r="D243" t="n">
-        <v>19957496</v>
+        <v>19985996</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -9730,10 +9730,10 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>3080</v>
+        <v>3089</v>
       </c>
       <c r="D247" t="n">
-        <v>4309345</v>
+        <v>4321230</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -9768,10 +9768,10 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>283296</v>
+        <v>283587</v>
       </c>
       <c r="D248" t="n">
-        <v>357158701</v>
+        <v>357505627</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -9806,10 +9806,10 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D249" t="n">
-        <v>243890</v>
+        <v>244328</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -10034,10 +10034,10 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="D255" t="n">
-        <v>1337336</v>
+        <v>1341846</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -10110,10 +10110,10 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>104328</v>
+        <v>104461</v>
       </c>
       <c r="D257" t="n">
-        <v>152822642</v>
+        <v>153011220</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -10224,10 +10224,10 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>73245</v>
+        <v>73383</v>
       </c>
       <c r="D260" t="n">
-        <v>106145548</v>
+        <v>106347428</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -10262,10 +10262,10 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D261" t="n">
-        <v>26989</v>
+        <v>28489</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -10300,10 +10300,10 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>2553</v>
+        <v>2554</v>
       </c>
       <c r="D262" t="n">
-        <v>3595657</v>
+        <v>3595912</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -10414,10 +10414,10 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>5980</v>
+        <v>6000</v>
       </c>
       <c r="D265" t="n">
-        <v>8387502</v>
+        <v>8413116</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2020-11-10/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-11-10/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -420,10 +420,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>351569</v>
+        <v>351818</v>
       </c>
       <c r="D2" t="n">
-        <v>446602088</v>
+        <v>446868126</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="D8" t="n">
-        <v>1360596</v>
+        <v>1363596</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>125701</v>
+        <v>125768</v>
       </c>
       <c r="D10" t="n">
-        <v>184076137</v>
+        <v>184173454</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -800,10 +800,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>65939</v>
+        <v>65999</v>
       </c>
       <c r="D12" t="n">
-        <v>95174509</v>
+        <v>95262366</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4160</v>
+        <v>4161</v>
       </c>
       <c r="D16" t="n">
-        <v>5907077</v>
+        <v>5909075</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1142,10 +1142,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>8682</v>
+        <v>8709</v>
       </c>
       <c r="D21" t="n">
-        <v>12116443</v>
+        <v>12152134</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1218,10 +1218,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>83685</v>
+        <v>83750</v>
       </c>
       <c r="D23" t="n">
-        <v>103863029</v>
+        <v>103932946</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>34406</v>
+        <v>34420</v>
       </c>
       <c r="D29" t="n">
-        <v>50348864</v>
+        <v>50369864</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1560,10 +1560,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>12507</v>
+        <v>12523</v>
       </c>
       <c r="D32" t="n">
-        <v>17993728</v>
+        <v>18016746</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1750,10 +1750,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2293</v>
+        <v>2301</v>
       </c>
       <c r="D37" t="n">
-        <v>3229933</v>
+        <v>3241261</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1788,10 +1788,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>104591</v>
+        <v>104656</v>
       </c>
       <c r="D38" t="n">
-        <v>130963114</v>
+        <v>131033102</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2092,10 +2092,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>46894</v>
+        <v>46916</v>
       </c>
       <c r="D46" t="n">
-        <v>68684716</v>
+        <v>68717144</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2168,10 +2168,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>9976</v>
+        <v>9986</v>
       </c>
       <c r="D48" t="n">
-        <v>14297970</v>
+        <v>14312970</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2358,10 +2358,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2904</v>
+        <v>2909</v>
       </c>
       <c r="D53" t="n">
-        <v>4071147</v>
+        <v>4078593</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>74713</v>
+        <v>74761</v>
       </c>
       <c r="D54" t="n">
-        <v>93432428</v>
+        <v>93487820</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2662,10 +2662,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>30157</v>
+        <v>30176</v>
       </c>
       <c r="D61" t="n">
-        <v>44189860</v>
+        <v>44214496</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2776,10 +2776,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>12200</v>
+        <v>12207</v>
       </c>
       <c r="D64" t="n">
-        <v>17624615</v>
+        <v>17635115</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -3004,10 +3004,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="D70" t="n">
-        <v>2624327</v>
+        <v>2625827</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3080,10 +3080,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>22494</v>
+        <v>22513</v>
       </c>
       <c r="D72" t="n">
-        <v>29378508</v>
+        <v>29401420</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3118,10 +3118,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D73" t="n">
-        <v>46919</v>
+        <v>48419</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>8284</v>
+        <v>8293</v>
       </c>
       <c r="D76" t="n">
-        <v>12130524</v>
+        <v>12143124</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3308,10 +3308,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5683</v>
+        <v>5685</v>
       </c>
       <c r="D78" t="n">
-        <v>8263931</v>
+        <v>8266931</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3346,10 +3346,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="D79" t="n">
-        <v>784968</v>
+        <v>790593</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3384,10 +3384,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D80" t="n">
-        <v>509448</v>
+        <v>510948</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3422,10 +3422,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>152802</v>
+        <v>152908</v>
       </c>
       <c r="D81" t="n">
-        <v>189674839</v>
+        <v>189785875</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3650,10 +3650,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>67577</v>
+        <v>67596</v>
       </c>
       <c r="D87" t="n">
-        <v>98985778</v>
+        <v>99013356</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3764,10 +3764,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>32159</v>
+        <v>32180</v>
       </c>
       <c r="D90" t="n">
-        <v>46522916</v>
+        <v>46554234</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3840,10 +3840,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2985</v>
+        <v>2991</v>
       </c>
       <c r="D92" t="n">
-        <v>4306182</v>
+        <v>4315182</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3916,10 +3916,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3541</v>
+        <v>3543</v>
       </c>
       <c r="D94" t="n">
-        <v>4998301</v>
+        <v>5000101</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3954,10 +3954,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>37839</v>
+        <v>37861</v>
       </c>
       <c r="D95" t="n">
-        <v>51324684</v>
+        <v>51354821</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -4106,10 +4106,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>9383</v>
+        <v>9396</v>
       </c>
       <c r="D99" t="n">
-        <v>13784762</v>
+        <v>13804262</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -4182,10 +4182,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>8725</v>
+        <v>8734</v>
       </c>
       <c r="D101" t="n">
-        <v>12659926</v>
+        <v>12673426</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -4258,10 +4258,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D103" t="n">
-        <v>845430</v>
+        <v>846930</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -4334,10 +4334,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>16517</v>
+        <v>16556</v>
       </c>
       <c r="D105" t="n">
-        <v>30882945</v>
+        <v>30986147</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -4448,10 +4448,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>3831</v>
+        <v>3839</v>
       </c>
       <c r="D108" t="n">
-        <v>7680181</v>
+        <v>7702389</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -4524,10 +4524,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>5437</v>
+        <v>5451</v>
       </c>
       <c r="D110" t="n">
-        <v>11023520</v>
+        <v>11055384</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -4600,10 +4600,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D112" t="n">
-        <v>507340</v>
+        <v>510930</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -4714,10 +4714,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>153790</v>
+        <v>153885</v>
       </c>
       <c r="D115" t="n">
-        <v>189806410</v>
+        <v>189917997</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -4942,10 +4942,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>56558</v>
+        <v>56584</v>
       </c>
       <c r="D121" t="n">
-        <v>82820395</v>
+        <v>82859217</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -4980,10 +4980,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D122" t="n">
-        <v>148459</v>
+        <v>151459</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -5018,10 +5018,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>30412</v>
+        <v>30443</v>
       </c>
       <c r="D123" t="n">
-        <v>44053367</v>
+        <v>44098626</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -5170,10 +5170,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>2827</v>
+        <v>2838</v>
       </c>
       <c r="D127" t="n">
-        <v>3983097</v>
+        <v>3998497</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -5246,10 +5246,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>614664</v>
+        <v>615399</v>
       </c>
       <c r="D129" t="n">
-        <v>811361164</v>
+        <v>812273807</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -5436,10 +5436,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1593</v>
+        <v>1596</v>
       </c>
       <c r="D134" t="n">
-        <v>2359103</v>
+        <v>2363603</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -5512,10 +5512,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>236809</v>
+        <v>237056</v>
       </c>
       <c r="D136" t="n">
-        <v>347877220</v>
+        <v>348238519</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -5550,10 +5550,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D137" t="n">
-        <v>803147</v>
+        <v>804647</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -5626,10 +5626,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>220897</v>
+        <v>221230</v>
       </c>
       <c r="D139" t="n">
-        <v>321208427</v>
+        <v>321695694</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -5740,10 +5740,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>3019</v>
+        <v>3021</v>
       </c>
       <c r="D142" t="n">
-        <v>4243734</v>
+        <v>4246734</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -5854,10 +5854,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>8502</v>
+        <v>8515</v>
       </c>
       <c r="D145" t="n">
-        <v>11981868</v>
+        <v>11996993</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -5968,10 +5968,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>49534</v>
+        <v>49566</v>
       </c>
       <c r="D148" t="n">
-        <v>66040199</v>
+        <v>66084078</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -6196,10 +6196,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>15278</v>
+        <v>15283</v>
       </c>
       <c r="D154" t="n">
-        <v>22390110</v>
+        <v>22398082</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -6234,10 +6234,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>4149</v>
+        <v>4151</v>
       </c>
       <c r="D155" t="n">
-        <v>5987826</v>
+        <v>5990826</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -6462,10 +6462,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>19793</v>
+        <v>19818</v>
       </c>
       <c r="D161" t="n">
-        <v>26168853</v>
+        <v>26199666</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -6614,10 +6614,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>8193</v>
+        <v>8204</v>
       </c>
       <c r="D165" t="n">
-        <v>11919200</v>
+        <v>11935032</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -6690,10 +6690,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>5815</v>
+        <v>5824</v>
       </c>
       <c r="D167" t="n">
-        <v>8369992</v>
+        <v>8383492</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -6880,10 +6880,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>28736</v>
+        <v>28771</v>
       </c>
       <c r="D172" t="n">
-        <v>57862448</v>
+        <v>57959648</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -7108,10 +7108,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>94607</v>
+        <v>94645</v>
       </c>
       <c r="D178" t="n">
-        <v>117784627</v>
+        <v>117830425</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -7374,10 +7374,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>36156</v>
+        <v>36174</v>
       </c>
       <c r="D185" t="n">
-        <v>52988636</v>
+        <v>53015854</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -7450,10 +7450,10 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>14384</v>
+        <v>14394</v>
       </c>
       <c r="D187" t="n">
-        <v>20778331</v>
+        <v>20792331</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -7602,10 +7602,10 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>2038</v>
+        <v>2046</v>
       </c>
       <c r="D191" t="n">
-        <v>2863791</v>
+        <v>2875484</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -7678,10 +7678,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>257955</v>
+        <v>258123</v>
       </c>
       <c r="D193" t="n">
-        <v>319488138</v>
+        <v>319674038</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -7754,10 +7754,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D195" t="n">
-        <v>267435</v>
+        <v>267891</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -7982,10 +7982,10 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>92351</v>
+        <v>92394</v>
       </c>
       <c r="D201" t="n">
-        <v>135301215</v>
+        <v>135362452</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -8096,10 +8096,10 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>36264</v>
+        <v>36289</v>
       </c>
       <c r="D204" t="n">
-        <v>52210076</v>
+        <v>52245327</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -8210,10 +8210,10 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>5470</v>
+        <v>5477</v>
       </c>
       <c r="D207" t="n">
-        <v>7790817</v>
+        <v>7799272</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -8324,10 +8324,10 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>6057</v>
+        <v>6076</v>
       </c>
       <c r="D210" t="n">
-        <v>8384838</v>
+        <v>8412405</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -8438,10 +8438,10 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>286946</v>
+        <v>287156</v>
       </c>
       <c r="D213" t="n">
-        <v>354017372</v>
+        <v>354249549</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -8704,10 +8704,10 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D220" t="n">
-        <v>954893</v>
+        <v>956370</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -8780,10 +8780,10 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>102132</v>
+        <v>102196</v>
       </c>
       <c r="D222" t="n">
-        <v>149356204</v>
+        <v>149446849</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -8894,10 +8894,10 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>56660</v>
+        <v>56704</v>
       </c>
       <c r="D225" t="n">
-        <v>81851102</v>
+        <v>81912028</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -9008,10 +9008,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>4933</v>
+        <v>4938</v>
       </c>
       <c r="D228" t="n">
-        <v>6918902</v>
+        <v>6926402</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -9122,10 +9122,10 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>7524</v>
+        <v>7541</v>
       </c>
       <c r="D231" t="n">
-        <v>10414314</v>
+        <v>10437508</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -9236,10 +9236,10 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>115714</v>
+        <v>115784</v>
       </c>
       <c r="D234" t="n">
-        <v>144140155</v>
+        <v>144216629</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -9502,10 +9502,10 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>52683</v>
+        <v>52697</v>
       </c>
       <c r="D241" t="n">
-        <v>77149658</v>
+        <v>77170558</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -9578,10 +9578,10 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>13893</v>
+        <v>13905</v>
       </c>
       <c r="D243" t="n">
-        <v>19985996</v>
+        <v>20003147</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -9654,10 +9654,10 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>1963</v>
+        <v>1965</v>
       </c>
       <c r="D245" t="n">
-        <v>2813113</v>
+        <v>2815482</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -9730,10 +9730,10 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>3089</v>
+        <v>3096</v>
       </c>
       <c r="D247" t="n">
-        <v>4321230</v>
+        <v>4331017</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -9768,10 +9768,10 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>283587</v>
+        <v>283783</v>
       </c>
       <c r="D248" t="n">
-        <v>357505627</v>
+        <v>357735766</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -9806,10 +9806,10 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D249" t="n">
-        <v>244328</v>
+        <v>245828</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -10110,10 +10110,10 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>104461</v>
+        <v>104566</v>
       </c>
       <c r="D257" t="n">
-        <v>153011220</v>
+        <v>153167368</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -10148,10 +10148,10 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D258" t="n">
-        <v>130064</v>
+        <v>131564</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -10186,10 +10186,10 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D259" t="n">
-        <v>9000</v>
+        <v>10500</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -10224,10 +10224,10 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>73383</v>
+        <v>73469</v>
       </c>
       <c r="D260" t="n">
-        <v>106347428</v>
+        <v>106476405</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -10300,10 +10300,10 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>2554</v>
+        <v>2557</v>
       </c>
       <c r="D262" t="n">
-        <v>3595912</v>
+        <v>3599706</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -10376,10 +10376,10 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D264" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -10414,10 +10414,10 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>6000</v>
+        <v>6015</v>
       </c>
       <c r="D265" t="n">
-        <v>8413116</v>
+        <v>8434539</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
